--- a/biology/Botanique/Kickxia_sagittata/Kickxia_sagittata.xlsx
+++ b/biology/Botanique/Kickxia_sagittata/Kickxia_sagittata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kickxia sagittata est une plante herbacée annuelle de la famille des Scrophulariaceae, ou des Plantaginaceae selon la classification phylogénétique orignaire des îles Canaries.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Kickxia heterophylla (Schousb.) Dandy
 Pogonorrhinum heterophyllum (Schousb.) Betsche (1984)
@@ -549,11 +563,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante rampante, basse très ramifiée.
 Les fleurs sont jaunes avec un éperon et situées sur les pédoncules très fins
-Les feuilles sont courtes, linéaires parfois sagittées et opposées[1].
+Les feuilles sont courtes, linéaires parfois sagittées et opposées.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kickxia sagittata est originaire des îles Canaries orientales et d'Afrique du Nord (sous le nom de Kickxia heterophylla). Elle pousse dans les zones rocheuses[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kickxia sagittata est originaire des îles Canaries orientales et d'Afrique du Nord (sous le nom de Kickxia heterophylla). Elle pousse dans les zones rocheuses.
 </t>
         </is>
       </c>
